--- a/data/yahoofin/EDV_TLT_ZROZ_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/EDV_TLT_ZROZ_yahoofin_historical_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +616,7 @@
         <v>87.529999</v>
       </c>
       <c r="F7" t="n">
-        <v>84.34063</v>
+        <v>84.340622</v>
       </c>
       <c r="G7" t="n">
         <v>329500</v>
@@ -641,7 +641,7 @@
         <v>89.5</v>
       </c>
       <c r="F8" t="n">
-        <v>86.238846</v>
+        <v>86.238838</v>
       </c>
       <c r="G8" t="n">
         <v>158700</v>
@@ -691,7 +691,7 @@
         <v>90.949997</v>
       </c>
       <c r="F10" t="n">
-        <v>87.636017</v>
+        <v>87.636009</v>
       </c>
       <c r="G10" t="n">
         <v>290200</v>
@@ -741,7 +741,7 @@
         <v>92.83000199999999</v>
       </c>
       <c r="F12" t="n">
-        <v>89.447517</v>
+        <v>89.44750999999999</v>
       </c>
       <c r="G12" t="n">
         <v>334400</v>
@@ -766,7 +766,7 @@
         <v>92.129997</v>
       </c>
       <c r="F13" t="n">
-        <v>88.77301799999999</v>
+        <v>88.77301</v>
       </c>
       <c r="G13" t="n">
         <v>235000</v>
@@ -816,7 +816,7 @@
         <v>89.5</v>
       </c>
       <c r="F15" t="n">
-        <v>86.238846</v>
+        <v>86.238838</v>
       </c>
       <c r="G15" t="n">
         <v>250400</v>
@@ -866,7 +866,7 @@
         <v>91.55999799999999</v>
       </c>
       <c r="F17" t="n">
-        <v>88.223778</v>
+        <v>88.22378500000001</v>
       </c>
       <c r="G17" t="n">
         <v>141400</v>
@@ -916,7 +916,7 @@
         <v>90.980003</v>
       </c>
       <c r="F19" t="n">
-        <v>87.664925</v>
+        <v>87.664917</v>
       </c>
       <c r="G19" t="n">
         <v>220800</v>
@@ -966,7 +966,7 @@
         <v>91.260002</v>
       </c>
       <c r="F21" t="n">
-        <v>87.93472300000001</v>
+        <v>87.934715</v>
       </c>
       <c r="G21" t="n">
         <v>228600</v>
@@ -991,7 +991,7 @@
         <v>92.91999800000001</v>
       </c>
       <c r="F22" t="n">
-        <v>89.53422500000001</v>
+        <v>89.534233</v>
       </c>
       <c r="G22" t="n">
         <v>426700</v>
@@ -1041,7 +1041,7 @@
         <v>91.41999800000001</v>
       </c>
       <c r="F24" t="n">
-        <v>88.088882</v>
+        <v>88.08889000000001</v>
       </c>
       <c r="G24" t="n">
         <v>353200</v>
@@ -1141,7 +1141,7 @@
         <v>88.839996</v>
       </c>
       <c r="F28" t="n">
-        <v>85.60289</v>
+        <v>85.602898</v>
       </c>
       <c r="G28" t="n">
         <v>265600</v>
@@ -1291,7 +1291,7 @@
         <v>86.300003</v>
       </c>
       <c r="F34" t="n">
-        <v>83.155457</v>
+        <v>83.155449</v>
       </c>
       <c r="G34" t="n">
         <v>164100</v>
@@ -1341,7 +1341,7 @@
         <v>85.300003</v>
       </c>
       <c r="F36" t="n">
-        <v>82.191879</v>
+        <v>82.19188699999999</v>
       </c>
       <c r="G36" t="n">
         <v>115300</v>
@@ -1541,7 +1541,7 @@
         <v>85.519997</v>
       </c>
       <c r="F44" t="n">
-        <v>82.40387</v>
+        <v>82.403862</v>
       </c>
       <c r="G44" t="n">
         <v>169400</v>
@@ -1566,7 +1566,7 @@
         <v>86.260002</v>
       </c>
       <c r="F45" t="n">
-        <v>83.116905</v>
+        <v>83.11689800000001</v>
       </c>
       <c r="G45" t="n">
         <v>138900</v>
@@ -1616,7 +1616,7 @@
         <v>86.44000200000001</v>
       </c>
       <c r="F47" t="n">
-        <v>83.290344</v>
+        <v>83.290352</v>
       </c>
       <c r="G47" t="n">
         <v>143000</v>
@@ -1691,7 +1691,7 @@
         <v>88.300003</v>
       </c>
       <c r="F50" t="n">
-        <v>85.082581</v>
+        <v>85.082573</v>
       </c>
       <c r="G50" t="n">
         <v>444700</v>
@@ -1716,7 +1716,7 @@
         <v>90.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>87.15422100000001</v>
+        <v>87.154228</v>
       </c>
       <c r="G51" t="n">
         <v>341500</v>
@@ -1766,7 +1766,7 @@
         <v>91.31999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>87.992531</v>
+        <v>87.99252300000001</v>
       </c>
       <c r="G53" t="n">
         <v>418500</v>
@@ -1791,7 +1791,7 @@
         <v>90.110001</v>
       </c>
       <c r="F54" t="n">
-        <v>86.826622</v>
+        <v>86.82662999999999</v>
       </c>
       <c r="G54" t="n">
         <v>350000</v>
@@ -1941,7 +1941,7 @@
         <v>88.300003</v>
       </c>
       <c r="F60" t="n">
-        <v>85.082581</v>
+        <v>85.082573</v>
       </c>
       <c r="G60" t="n">
         <v>847100</v>
@@ -1991,7 +1991,7 @@
         <v>88.610001</v>
       </c>
       <c r="F62" t="n">
-        <v>85.38127900000001</v>
+        <v>85.381271</v>
       </c>
       <c r="G62" t="n">
         <v>299600</v>
@@ -5482,19 +5482,69 @@
         <v>64.220001</v>
       </c>
       <c r="C202" t="n">
-        <v>65.00279999999999</v>
+        <v>65</v>
       </c>
       <c r="D202" t="n">
-        <v>62.869999</v>
+        <v>62.799999</v>
       </c>
       <c r="E202" t="n">
-        <v>63.0313</v>
+        <v>62.830002</v>
       </c>
       <c r="F202" t="n">
-        <v>63.0313</v>
+        <v>62.830002</v>
       </c>
       <c r="G202" t="n">
-        <v>1330163</v>
+        <v>1440700</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>62.950001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>63.509998</v>
+      </c>
+      <c r="D203" t="n">
+        <v>62.66</v>
+      </c>
+      <c r="E203" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="F203" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="G203" t="n">
+        <v>786400</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>62.950001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>62.779999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>109191</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5572,7 +5622,7 @@
         <v>101.459999</v>
       </c>
       <c r="F2" t="n">
-        <v>99.019188</v>
+        <v>99.01917299999999</v>
       </c>
       <c r="G2" t="n">
         <v>25313200</v>
@@ -5622,7 +5672,7 @@
         <v>103.279999</v>
       </c>
       <c r="F4" t="n">
-        <v>100.795418</v>
+        <v>100.795403</v>
       </c>
       <c r="G4" t="n">
         <v>14771100</v>
@@ -5647,7 +5697,7 @@
         <v>105.18</v>
       </c>
       <c r="F5" t="n">
-        <v>102.649689</v>
+        <v>102.649696</v>
       </c>
       <c r="G5" t="n">
         <v>27473700</v>
@@ -5672,7 +5722,7 @@
         <v>105.739998</v>
       </c>
       <c r="F6" t="n">
-        <v>103.196205</v>
+        <v>103.19622</v>
       </c>
       <c r="G6" t="n">
         <v>21472200</v>
@@ -5697,7 +5747,7 @@
         <v>103.989998</v>
       </c>
       <c r="F7" t="n">
-        <v>101.488312</v>
+        <v>101.488319</v>
       </c>
       <c r="G7" t="n">
         <v>20545200</v>
@@ -5722,7 +5772,7 @@
         <v>105.68</v>
       </c>
       <c r="F8" t="n">
-        <v>103.137665</v>
+        <v>103.137657</v>
       </c>
       <c r="G8" t="n">
         <v>18794000</v>
@@ -5772,7 +5822,7 @@
         <v>106.75</v>
       </c>
       <c r="F10" t="n">
-        <v>104.181938</v>
+        <v>104.181923</v>
       </c>
       <c r="G10" t="n">
         <v>17750800</v>
@@ -5797,7 +5847,7 @@
         <v>106.059998</v>
       </c>
       <c r="F11" t="n">
-        <v>103.50853</v>
+        <v>103.508522</v>
       </c>
       <c r="G11" t="n">
         <v>13911700</v>
@@ -5897,7 +5947,7 @@
         <v>105.699997</v>
       </c>
       <c r="F15" t="n">
-        <v>103.157181</v>
+        <v>103.157188</v>
       </c>
       <c r="G15" t="n">
         <v>12961500</v>
@@ -5922,7 +5972,7 @@
         <v>107.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>104.640625</v>
+        <v>104.640617</v>
       </c>
       <c r="G16" t="n">
         <v>16417200</v>
@@ -5947,7 +5997,7 @@
         <v>107.480003</v>
       </c>
       <c r="F17" t="n">
-        <v>104.894363</v>
+        <v>104.894371</v>
       </c>
       <c r="G17" t="n">
         <v>11906500</v>
@@ -5972,7 +6022,7 @@
         <v>106.980003</v>
       </c>
       <c r="F18" t="n">
-        <v>104.40641</v>
+        <v>104.406395</v>
       </c>
       <c r="G18" t="n">
         <v>15549400</v>
@@ -5997,7 +6047,7 @@
         <v>106.709999</v>
       </c>
       <c r="F19" t="n">
-        <v>104.142899</v>
+        <v>104.142883</v>
       </c>
       <c r="G19" t="n">
         <v>11845500</v>
@@ -6022,7 +6072,7 @@
         <v>106.32</v>
       </c>
       <c r="F20" t="n">
-        <v>103.76226</v>
+        <v>103.762283</v>
       </c>
       <c r="G20" t="n">
         <v>11459700</v>
@@ -6047,7 +6097,7 @@
         <v>107.169998</v>
       </c>
       <c r="F21" t="n">
-        <v>104.591827</v>
+        <v>104.59182</v>
       </c>
       <c r="G21" t="n">
         <v>13705300</v>
@@ -6097,7 +6147,7 @@
         <v>108.32</v>
       </c>
       <c r="F23" t="n">
-        <v>105.986122</v>
+        <v>105.986115</v>
       </c>
       <c r="G23" t="n">
         <v>19548400</v>
@@ -6147,7 +6197,7 @@
         <v>105.910004</v>
       </c>
       <c r="F25" t="n">
-        <v>103.628052</v>
+        <v>103.628044</v>
       </c>
       <c r="G25" t="n">
         <v>15182400</v>
@@ -6172,7 +6222,7 @@
         <v>105.059998</v>
       </c>
       <c r="F26" t="n">
-        <v>102.796356</v>
+        <v>102.796364</v>
       </c>
       <c r="G26" t="n">
         <v>18290300</v>
@@ -6222,7 +6272,7 @@
         <v>104.559998</v>
       </c>
       <c r="F28" t="n">
-        <v>102.307129</v>
+        <v>102.307144</v>
       </c>
       <c r="G28" t="n">
         <v>20469900</v>
@@ -6247,7 +6297,7 @@
         <v>103.389999</v>
       </c>
       <c r="F29" t="n">
-        <v>101.162338</v>
+        <v>101.162346</v>
       </c>
       <c r="G29" t="n">
         <v>16598300</v>
@@ -6297,7 +6347,7 @@
         <v>104.019997</v>
       </c>
       <c r="F31" t="n">
-        <v>101.778778</v>
+        <v>101.778763</v>
       </c>
       <c r="G31" t="n">
         <v>15440300</v>
@@ -6322,7 +6372,7 @@
         <v>103.050003</v>
       </c>
       <c r="F32" t="n">
-        <v>100.829666</v>
+        <v>100.829681</v>
       </c>
       <c r="G32" t="n">
         <v>15246900</v>
@@ -6347,7 +6397,7 @@
         <v>101.589996</v>
       </c>
       <c r="F33" t="n">
-        <v>99.40113100000001</v>
+        <v>99.401123</v>
       </c>
       <c r="G33" t="n">
         <v>19267300</v>
@@ -6372,7 +6422,7 @@
         <v>102.379997</v>
       </c>
       <c r="F34" t="n">
-        <v>100.174095</v>
+        <v>100.174103</v>
       </c>
       <c r="G34" t="n">
         <v>19560900</v>
@@ -6397,7 +6447,7 @@
         <v>100.389999</v>
       </c>
       <c r="F35" t="n">
-        <v>98.22698200000001</v>
+        <v>98.22699</v>
       </c>
       <c r="G35" t="n">
         <v>22728000</v>
@@ -6472,7 +6522,7 @@
         <v>100.970001</v>
       </c>
       <c r="F38" t="n">
-        <v>98.794479</v>
+        <v>98.794487</v>
       </c>
       <c r="G38" t="n">
         <v>21403600</v>
@@ -6497,7 +6547,7 @@
         <v>101.25</v>
       </c>
       <c r="F39" t="n">
-        <v>99.068451</v>
+        <v>99.068443</v>
       </c>
       <c r="G39" t="n">
         <v>14209200</v>
@@ -6522,7 +6572,7 @@
         <v>101.709999</v>
       </c>
       <c r="F40" t="n">
-        <v>99.518539</v>
+        <v>99.518547</v>
       </c>
       <c r="G40" t="n">
         <v>14955700</v>
@@ -6597,7 +6647,7 @@
         <v>101.889999</v>
       </c>
       <c r="F43" t="n">
-        <v>99.94032300000001</v>
+        <v>99.940315</v>
       </c>
       <c r="G43" t="n">
         <v>30877300</v>
@@ -6647,7 +6697,7 @@
         <v>101.720001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.77357499999999</v>
+        <v>99.773567</v>
       </c>
       <c r="G45" t="n">
         <v>23096500</v>
@@ -6672,7 +6722,7 @@
         <v>101.82</v>
       </c>
       <c r="F46" t="n">
-        <v>99.871658</v>
+        <v>99.871651</v>
       </c>
       <c r="G46" t="n">
         <v>20252400</v>
@@ -6697,7 +6747,7 @@
         <v>102.07</v>
       </c>
       <c r="F47" t="n">
-        <v>100.116859</v>
+        <v>100.116867</v>
       </c>
       <c r="G47" t="n">
         <v>21550400</v>
@@ -6722,7 +6772,7 @@
         <v>105.589996</v>
       </c>
       <c r="F48" t="n">
-        <v>103.569504</v>
+        <v>103.569511</v>
       </c>
       <c r="G48" t="n">
         <v>43921500</v>
@@ -6772,7 +6822,7 @@
         <v>104.089996</v>
       </c>
       <c r="F50" t="n">
-        <v>102.098206</v>
+        <v>102.098213</v>
       </c>
       <c r="G50" t="n">
         <v>38417800</v>
@@ -6797,7 +6847,7 @@
         <v>106.099998</v>
       </c>
       <c r="F51" t="n">
-        <v>104.069756</v>
+        <v>104.069763</v>
       </c>
       <c r="G51" t="n">
         <v>45164100</v>
@@ -6822,7 +6872,7 @@
         <v>105.269997</v>
       </c>
       <c r="F52" t="n">
-        <v>103.255623</v>
+        <v>103.255638</v>
       </c>
       <c r="G52" t="n">
         <v>43089300</v>
@@ -6897,7 +6947,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="n">
-        <v>102.990799</v>
+        <v>102.990791</v>
       </c>
       <c r="G55" t="n">
         <v>18934900</v>
@@ -6922,7 +6972,7 @@
         <v>106.400002</v>
       </c>
       <c r="F56" t="n">
-        <v>104.364021</v>
+        <v>104.364014</v>
       </c>
       <c r="G56" t="n">
         <v>26388500</v>
@@ -6947,7 +6997,7 @@
         <v>106.400002</v>
       </c>
       <c r="F57" t="n">
-        <v>104.364021</v>
+        <v>104.364014</v>
       </c>
       <c r="G57" t="n">
         <v>25475100</v>
@@ -6997,7 +7047,7 @@
         <v>104.339996</v>
       </c>
       <c r="F59" t="n">
-        <v>102.34343</v>
+        <v>102.343422</v>
       </c>
       <c r="G59" t="n">
         <v>22224500</v>
@@ -7022,7 +7072,7 @@
         <v>104.529999</v>
       </c>
       <c r="F60" t="n">
-        <v>102.529785</v>
+        <v>102.529793</v>
       </c>
       <c r="G60" t="n">
         <v>17794300</v>
@@ -7072,7 +7122,7 @@
         <v>104.800003</v>
       </c>
       <c r="F62" t="n">
-        <v>102.794632</v>
+        <v>102.794617</v>
       </c>
       <c r="G62" t="n">
         <v>14315800</v>
@@ -7097,7 +7147,7 @@
         <v>106.370003</v>
       </c>
       <c r="F63" t="n">
-        <v>104.334587</v>
+        <v>104.334595</v>
       </c>
       <c r="G63" t="n">
         <v>25396700</v>
@@ -7122,7 +7172,7 @@
         <v>106.599998</v>
       </c>
       <c r="F64" t="n">
-        <v>104.825272</v>
+        <v>104.825287</v>
       </c>
       <c r="G64" t="n">
         <v>18234800</v>
@@ -7147,7 +7197,7 @@
         <v>107.129997</v>
       </c>
       <c r="F65" t="n">
-        <v>105.346458</v>
+        <v>105.346466</v>
       </c>
       <c r="G65" t="n">
         <v>18052400</v>
@@ -7172,7 +7222,7 @@
         <v>108.25</v>
       </c>
       <c r="F66" t="n">
-        <v>106.447807</v>
+        <v>106.447815</v>
       </c>
       <c r="G66" t="n">
         <v>23047700</v>
@@ -7197,7 +7247,7 @@
         <v>108.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>106.723152</v>
+        <v>106.723145</v>
       </c>
       <c r="G67" t="n">
         <v>16447300</v>
@@ -7222,7 +7272,7 @@
         <v>106.779999</v>
       </c>
       <c r="F68" t="n">
-        <v>105.002289</v>
+        <v>105.002281</v>
       </c>
       <c r="G68" t="n">
         <v>19134400</v>
@@ -7247,7 +7297,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>105.218613</v>
+        <v>105.21862</v>
       </c>
       <c r="G69" t="n">
         <v>13971200</v>
@@ -7297,7 +7347,7 @@
         <v>106.050003</v>
       </c>
       <c r="F71" t="n">
-        <v>104.284439</v>
+        <v>104.284447</v>
       </c>
       <c r="G71" t="n">
         <v>22079400</v>
@@ -7447,7 +7497,7 @@
         <v>104.400002</v>
       </c>
       <c r="F77" t="n">
-        <v>102.661911</v>
+        <v>102.661903</v>
       </c>
       <c r="G77" t="n">
         <v>15244700</v>
@@ -7497,7 +7547,7 @@
         <v>106.959999</v>
       </c>
       <c r="F79" t="n">
-        <v>105.179283</v>
+        <v>105.179276</v>
       </c>
       <c r="G79" t="n">
         <v>21899900</v>
@@ -7522,7 +7572,7 @@
         <v>105.82</v>
       </c>
       <c r="F80" t="n">
-        <v>104.058273</v>
+        <v>104.058266</v>
       </c>
       <c r="G80" t="n">
         <v>19610400</v>
@@ -7547,7 +7597,7 @@
         <v>104.769997</v>
       </c>
       <c r="F81" t="n">
-        <v>103.025742</v>
+        <v>103.025749</v>
       </c>
       <c r="G81" t="n">
         <v>20247600</v>
@@ -7572,7 +7622,7 @@
         <v>106.459999</v>
       </c>
       <c r="F82" t="n">
-        <v>104.687614</v>
+        <v>104.687607</v>
       </c>
       <c r="G82" t="n">
         <v>26949000</v>
@@ -7597,7 +7647,7 @@
         <v>103.129997</v>
       </c>
       <c r="F83" t="n">
-        <v>101.668983</v>
+        <v>101.668991</v>
       </c>
       <c r="G83" t="n">
         <v>32487300</v>
@@ -7622,7 +7672,7 @@
         <v>105.699997</v>
       </c>
       <c r="F84" t="n">
-        <v>104.202583</v>
+        <v>104.202576</v>
       </c>
       <c r="G84" t="n">
         <v>30057800</v>
@@ -7647,7 +7697,7 @@
         <v>106.290001</v>
       </c>
       <c r="F85" t="n">
-        <v>104.784225</v>
+        <v>104.784233</v>
       </c>
       <c r="G85" t="n">
         <v>23656200</v>
@@ -7672,7 +7722,7 @@
         <v>105.239998</v>
       </c>
       <c r="F86" t="n">
-        <v>103.749107</v>
+        <v>103.7491</v>
       </c>
       <c r="G86" t="n">
         <v>25110500</v>
@@ -7747,7 +7797,7 @@
         <v>103.050003</v>
       </c>
       <c r="F89" t="n">
-        <v>101.590126</v>
+        <v>101.590134</v>
       </c>
       <c r="G89" t="n">
         <v>19182500</v>
@@ -7772,7 +7822,7 @@
         <v>104.050003</v>
       </c>
       <c r="F90" t="n">
-        <v>102.575966</v>
+        <v>102.575958</v>
       </c>
       <c r="G90" t="n">
         <v>22886800</v>
@@ -7797,7 +7847,7 @@
         <v>105.150002</v>
       </c>
       <c r="F91" t="n">
-        <v>103.66037</v>
+        <v>103.660378</v>
       </c>
       <c r="G91" t="n">
         <v>19147200</v>
@@ -7822,7 +7872,7 @@
         <v>104.269997</v>
       </c>
       <c r="F92" t="n">
-        <v>102.792847</v>
+        <v>102.792839</v>
       </c>
       <c r="G92" t="n">
         <v>14195900</v>
@@ -7847,7 +7897,7 @@
         <v>103.190002</v>
       </c>
       <c r="F93" t="n">
-        <v>101.728149</v>
+        <v>101.728142</v>
       </c>
       <c r="G93" t="n">
         <v>20085300</v>
@@ -7872,7 +7922,7 @@
         <v>102.879997</v>
       </c>
       <c r="F94" t="n">
-        <v>101.422539</v>
+        <v>101.422531</v>
       </c>
       <c r="G94" t="n">
         <v>29251700</v>
@@ -7922,7 +7972,7 @@
         <v>101.82</v>
       </c>
       <c r="F96" t="n">
-        <v>100.377548</v>
+        <v>100.377556</v>
       </c>
       <c r="G96" t="n">
         <v>25536600</v>
@@ -7947,7 +7997,7 @@
         <v>101.099998</v>
       </c>
       <c r="F97" t="n">
-        <v>99.66774700000001</v>
+        <v>99.66773999999999</v>
       </c>
       <c r="G97" t="n">
         <v>29032300</v>
@@ -7972,7 +8022,7 @@
         <v>100.739998</v>
       </c>
       <c r="F98" t="n">
-        <v>99.312843</v>
+        <v>99.312859</v>
       </c>
       <c r="G98" t="n">
         <v>20131100</v>
@@ -7997,7 +8047,7 @@
         <v>101.029999</v>
       </c>
       <c r="F99" t="n">
-        <v>99.59874000000001</v>
+        <v>99.598732</v>
       </c>
       <c r="G99" t="n">
         <v>21749500</v>
@@ -8022,7 +8072,7 @@
         <v>100.529999</v>
       </c>
       <c r="F100" t="n">
-        <v>99.10582700000001</v>
+        <v>99.10581999999999</v>
       </c>
       <c r="G100" t="n">
         <v>18473400</v>
@@ -8047,7 +8097,7 @@
         <v>100.279999</v>
       </c>
       <c r="F101" t="n">
-        <v>98.85936</v>
+        <v>98.85936700000001</v>
       </c>
       <c r="G101" t="n">
         <v>22492800</v>
@@ -8122,7 +8172,7 @@
         <v>102.989998</v>
       </c>
       <c r="F104" t="n">
-        <v>101.530975</v>
+        <v>101.530968</v>
       </c>
       <c r="G104" t="n">
         <v>23787000</v>
@@ -8222,7 +8272,7 @@
         <v>102.400002</v>
       </c>
       <c r="F108" t="n">
-        <v>101.217636</v>
+        <v>101.217644</v>
       </c>
       <c r="G108" t="n">
         <v>14332100</v>
@@ -8247,7 +8297,7 @@
         <v>100.879997</v>
       </c>
       <c r="F109" t="n">
-        <v>99.715187</v>
+        <v>99.71517900000001</v>
       </c>
       <c r="G109" t="n">
         <v>25251100</v>
@@ -8272,7 +8322,7 @@
         <v>102.059998</v>
       </c>
       <c r="F110" t="n">
-        <v>100.881561</v>
+        <v>100.881554</v>
       </c>
       <c r="G110" t="n">
         <v>23845100</v>
@@ -8297,7 +8347,7 @@
         <v>101.919998</v>
       </c>
       <c r="F111" t="n">
-        <v>100.743179</v>
+        <v>100.743172</v>
       </c>
       <c r="G111" t="n">
         <v>22147400</v>
@@ -8322,7 +8372,7 @@
         <v>102.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>101.039711</v>
+        <v>101.039719</v>
       </c>
       <c r="G112" t="n">
         <v>19010300</v>
@@ -8347,7 +8397,7 @@
         <v>101.209999</v>
       </c>
       <c r="F113" t="n">
-        <v>100.041382</v>
+        <v>100.041374</v>
       </c>
       <c r="G113" t="n">
         <v>25910800</v>
@@ -8422,7 +8472,7 @@
         <v>102.599998</v>
       </c>
       <c r="F116" t="n">
-        <v>101.415329</v>
+        <v>101.415321</v>
       </c>
       <c r="G116" t="n">
         <v>16758200</v>
@@ -8447,7 +8497,7 @@
         <v>103.309998</v>
       </c>
       <c r="F117" t="n">
-        <v>102.117126</v>
+        <v>102.117119</v>
       </c>
       <c r="G117" t="n">
         <v>17162900</v>
@@ -8522,7 +8572,7 @@
         <v>103.330002</v>
       </c>
       <c r="F120" t="n">
-        <v>102.136902</v>
+        <v>102.136894</v>
       </c>
       <c r="G120" t="n">
         <v>22896800</v>
@@ -8547,7 +8597,7 @@
         <v>103.440002</v>
       </c>
       <c r="F121" t="n">
-        <v>102.245621</v>
+        <v>102.245636</v>
       </c>
       <c r="G121" t="n">
         <v>12894900</v>
@@ -8572,7 +8622,7 @@
         <v>103.169998</v>
       </c>
       <c r="F122" t="n">
-        <v>101.978737</v>
+        <v>101.978745</v>
       </c>
       <c r="G122" t="n">
         <v>18105700</v>
@@ -8597,7 +8647,7 @@
         <v>103.610001</v>
       </c>
       <c r="F123" t="n">
-        <v>102.413666</v>
+        <v>102.413673</v>
       </c>
       <c r="G123" t="n">
         <v>23826800</v>
@@ -8622,7 +8672,7 @@
         <v>101.739998</v>
       </c>
       <c r="F124" t="n">
-        <v>100.565262</v>
+        <v>100.565254</v>
       </c>
       <c r="G124" t="n">
         <v>41091600</v>
@@ -8747,7 +8797,7 @@
         <v>99.08000199999999</v>
       </c>
       <c r="F129" t="n">
-        <v>98.201172</v>
+        <v>98.20117999999999</v>
       </c>
       <c r="G129" t="n">
         <v>28979600</v>
@@ -8772,7 +8822,7 @@
         <v>99.209999</v>
       </c>
       <c r="F130" t="n">
-        <v>98.33002500000001</v>
+        <v>98.330017</v>
       </c>
       <c r="G130" t="n">
         <v>24665200</v>
@@ -8822,7 +8872,7 @@
         <v>100.830002</v>
       </c>
       <c r="F132" t="n">
-        <v>99.93564600000001</v>
+        <v>99.935654</v>
       </c>
       <c r="G132" t="n">
         <v>31928000</v>
@@ -8972,7 +9022,7 @@
         <v>101.699997</v>
       </c>
       <c r="F138" t="n">
-        <v>100.797928</v>
+        <v>100.797935</v>
       </c>
       <c r="G138" t="n">
         <v>56951200</v>
@@ -8997,7 +9047,7 @@
         <v>101.730003</v>
       </c>
       <c r="F139" t="n">
-        <v>100.827675</v>
+        <v>100.827667</v>
       </c>
       <c r="G139" t="n">
         <v>20655700</v>
@@ -9047,7 +9097,7 @@
         <v>101.169998</v>
       </c>
       <c r="F141" t="n">
-        <v>100.272636</v>
+        <v>100.272629</v>
       </c>
       <c r="G141" t="n">
         <v>17160600</v>
@@ -9147,7 +9197,7 @@
         <v>100.050003</v>
       </c>
       <c r="F145" t="n">
-        <v>99.162567</v>
+        <v>99.162575</v>
       </c>
       <c r="G145" t="n">
         <v>28663800</v>
@@ -9297,7 +9347,7 @@
         <v>96.69000200000001</v>
       </c>
       <c r="F151" t="n">
-        <v>96.096512</v>
+        <v>96.096504</v>
       </c>
       <c r="G151" t="n">
         <v>24010500</v>
@@ -9322,7 +9372,7 @@
         <v>97.19000200000001</v>
       </c>
       <c r="F152" t="n">
-        <v>96.593445</v>
+        <v>96.59343699999999</v>
       </c>
       <c r="G152" t="n">
         <v>20151100</v>
@@ -9347,7 +9397,7 @@
         <v>95.589996</v>
       </c>
       <c r="F153" t="n">
-        <v>95.003258</v>
+        <v>95.00324999999999</v>
       </c>
       <c r="G153" t="n">
         <v>37253200</v>
@@ -9522,7 +9572,7 @@
         <v>92.519997</v>
       </c>
       <c r="F160" t="n">
-        <v>91.952095</v>
+        <v>91.95210299999999</v>
       </c>
       <c r="G160" t="n">
         <v>29254100</v>
@@ -9572,7 +9622,7 @@
         <v>95.540001</v>
       </c>
       <c r="F162" t="n">
-        <v>94.95356</v>
+        <v>94.953568</v>
       </c>
       <c r="G162" t="n">
         <v>38294700</v>
@@ -9597,7 +9647,7 @@
         <v>94.910004</v>
       </c>
       <c r="F163" t="n">
-        <v>94.327431</v>
+        <v>94.327438</v>
       </c>
       <c r="G163" t="n">
         <v>22300800</v>
@@ -9622,7 +9672,7 @@
         <v>95.220001</v>
       </c>
       <c r="F164" t="n">
-        <v>94.63552900000001</v>
+        <v>94.635536</v>
       </c>
       <c r="G164" t="n">
         <v>23865200</v>
@@ -9647,7 +9697,7 @@
         <v>95.31999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>94.734917</v>
+        <v>94.734909</v>
       </c>
       <c r="G165" t="n">
         <v>16037300</v>
@@ -10550,7 +10600,7 @@
         <v>84.5</v>
       </c>
       <c r="G201" t="n">
-        <v>63493400</v>
+        <v>63724600</v>
       </c>
     </row>
     <row r="202">
@@ -10566,16 +10616,66 @@
         <v>84.56999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>82.804497</v>
+        <v>82.739998</v>
       </c>
       <c r="E202" t="n">
-        <v>82.919403</v>
+        <v>82.769997</v>
       </c>
       <c r="F202" t="n">
-        <v>82.919403</v>
+        <v>82.769997</v>
       </c>
       <c r="G202" t="n">
-        <v>68282213</v>
+        <v>87696900</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>82.989998</v>
+      </c>
+      <c r="C203" t="n">
+        <v>83.540001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>82.769997</v>
+      </c>
+      <c r="E203" t="n">
+        <v>83.239998</v>
+      </c>
+      <c r="F203" t="n">
+        <v>83.239998</v>
+      </c>
+      <c r="G203" t="n">
+        <v>52162600</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>82.989998</v>
+      </c>
+      <c r="C204" t="n">
+        <v>82.894997</v>
+      </c>
+      <c r="D204" t="n">
+        <v>82.58000199999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>82.58429700000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>82.58429700000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3530145</v>
       </c>
     </row>
   </sheetData>
@@ -10589,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15631,7 +15731,7 @@
         <v>67.16999800000001</v>
       </c>
       <c r="G201" t="n">
-        <v>506400</v>
+        <v>506700</v>
       </c>
     </row>
     <row r="202">
@@ -15644,19 +15744,69 @@
         <v>66.400002</v>
       </c>
       <c r="C202" t="n">
-        <v>67.31500200000001</v>
+        <v>67.519997</v>
       </c>
       <c r="D202" t="n">
-        <v>64.880501</v>
+        <v>64.800003</v>
       </c>
       <c r="E202" t="n">
-        <v>65.038101</v>
+        <v>64.83000199999999</v>
       </c>
       <c r="F202" t="n">
-        <v>65.038101</v>
+        <v>64.83000199999999</v>
       </c>
       <c r="G202" t="n">
-        <v>680428</v>
+        <v>781500</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>65.449997</v>
+      </c>
+      <c r="D203" t="n">
+        <v>64.540001</v>
+      </c>
+      <c r="E203" t="n">
+        <v>65.150002</v>
+      </c>
+      <c r="F203" t="n">
+        <v>65.150002</v>
+      </c>
+      <c r="G203" t="n">
+        <v>550100</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>64.26840199999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>64.277496</v>
+      </c>
+      <c r="F204" t="n">
+        <v>64.277496</v>
+      </c>
+      <c r="G204" t="n">
+        <v>66718</v>
       </c>
     </row>
   </sheetData>
